--- a/outputs-HGR-r202/test-f__Rikenellaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Rikenellaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Row</t>
   </si>
@@ -160,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -170,14 +170,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,27 +203,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -239,7 +243,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -259,7 +263,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -279,7 +283,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -299,7 +303,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -319,7 +323,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -339,7 +343,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -359,7 +363,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -379,7 +383,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -399,7 +403,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -419,7 +423,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -439,7 +443,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -459,7 +463,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -479,7 +483,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -499,7 +503,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -519,7 +523,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -539,7 +543,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -559,240 +563,240 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>0.38236844089424049</v>
+        <v>0.00088675073760342718</v>
       </c>
       <c r="C19">
-        <v>0.050667546011694785</v>
+        <v>0.99667136942282275</v>
       </c>
       <c r="D19">
-        <v>0.0026530294132063995</v>
+        <v>6.1811544705854417e-06</v>
       </c>
       <c r="E19">
-        <v>0.5643109836808583</v>
+        <v>0.002435698685103124</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>0.00088675073760342718</v>
+        <v>0.99787471678814066</v>
       </c>
       <c r="C20">
-        <v>0.99667136942282275</v>
+        <v>0.00037223370570291518</v>
       </c>
       <c r="D20">
-        <v>6.1811544705854417e-06</v>
+        <v>2.9503401066160695e-06</v>
       </c>
       <c r="E20">
-        <v>0.002435698685103124</v>
+        <v>0.0017500991660498596</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>0.99787471678814066</v>
+        <v>0.99913754236215313</v>
       </c>
       <c r="C21">
-        <v>0.00037223370570291518</v>
+        <v>2.8785437315729538e-06</v>
       </c>
       <c r="D21">
-        <v>2.9503401066160695e-06</v>
+        <v>5.129009012018885e-06</v>
       </c>
       <c r="E21">
-        <v>0.0017500991660498596</v>
+        <v>0.0008544500851033124</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>0.99913754236215313</v>
+        <v>0.99942379512417101</v>
       </c>
       <c r="C22">
-        <v>2.8785437315729538e-06</v>
+        <v>2.4573566896777774e-05</v>
       </c>
       <c r="D22">
-        <v>5.129009012018885e-06</v>
+        <v>1.2748638347550824e-05</v>
       </c>
       <c r="E22">
-        <v>0.0008544500851033124</v>
+        <v>0.00053888267058471197</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.99942379512417101</v>
+        <v>0.29833038200622009</v>
       </c>
       <c r="C23">
-        <v>2.4573566896777774e-05</v>
+        <v>0.081424347922502152</v>
       </c>
       <c r="D23">
-        <v>1.2748638347550824e-05</v>
+        <v>0.0011704432806363273</v>
       </c>
       <c r="E23">
-        <v>0.00053888267058471197</v>
+        <v>0.61907482679064152</v>
       </c>
       <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.003940121804126789</v>
+      </c>
+      <c r="C24">
+        <v>0.995231250217124</v>
+      </c>
+      <c r="D24">
+        <v>8.2301432890968836e-06</v>
+      </c>
+      <c r="E24">
+        <v>0.00082039783546004647</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>0.99945870686630256</v>
+      </c>
+      <c r="C25">
+        <v>7.2808875872328614e-07</v>
+      </c>
+      <c r="D25">
+        <v>4.3183342361537982e-06</v>
+      </c>
+      <c r="E25">
+        <v>0.00053624671070254249</v>
+      </c>
+      <c r="F25">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0.16082173199944783</v>
-      </c>
-      <c r="C24">
-        <v>0.032126617705478484</v>
-      </c>
-      <c r="D24">
-        <v>0.0023074347367473776</v>
-      </c>
-      <c r="E24">
-        <v>0.80474421555832631</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0.29833038200622009</v>
-      </c>
-      <c r="C25">
-        <v>0.081424347922502152</v>
-      </c>
-      <c r="D25">
-        <v>0.0011704432806363273</v>
-      </c>
-      <c r="E25">
-        <v>0.61907482679064152</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.003940121804126789</v>
+        <v>0.24159196500639599</v>
       </c>
       <c r="C26">
-        <v>0.995231250217124</v>
+        <v>0.068499069315977004</v>
       </c>
       <c r="D26">
-        <v>8.2301432890968836e-06</v>
+        <v>0.00076491735060695086</v>
       </c>
       <c r="E26">
-        <v>0.00082039783546004647</v>
+        <v>0.68914404832702003</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>0.64709989691526326</v>
+        <v>0.17920988045005948</v>
       </c>
       <c r="C27">
-        <v>0.28154048191010134</v>
+        <v>0.039244186135190283</v>
       </c>
       <c r="D27">
-        <v>0.00025630487179155583</v>
+        <v>0.00020403648617549279</v>
       </c>
       <c r="E27">
-        <v>0.071103316302843625</v>
+        <v>0.7813418969285747</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.99945870686630256</v>
+        <v>0.14377040168045357</v>
       </c>
       <c r="C28">
-        <v>7.2808875872328614e-07</v>
+        <v>0.05835022129861947</v>
       </c>
       <c r="D28">
-        <v>4.3183342361537982e-06</v>
+        <v>0.0013562286413469045</v>
       </c>
       <c r="E28">
-        <v>0.00053624671070254249</v>
+        <v>0.79652314837957994</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.7955409222947224</v>
+        <v>0.94383927770568965</v>
       </c>
       <c r="C29">
-        <v>0.00060608436387778739</v>
+        <v>0.04067624401589081</v>
       </c>
       <c r="D29">
-        <v>4.7143465618712422e-05</v>
+        <v>2.1678465504682469e-06</v>
       </c>
       <c r="E29">
-        <v>0.20380584987578121</v>
+        <v>0.015482310431869166</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.26866199348060593</v>
+        <v>0.49524648447005382</v>
       </c>
       <c r="C30">
-        <v>0.0060462343107811189</v>
+        <v>0.0035311771954277954</v>
       </c>
       <c r="D30">
-        <v>0.00046468675413673051</v>
+        <v>6.5430245250272756e-05</v>
       </c>
       <c r="E30">
-        <v>0.72482708545447627</v>
+        <v>0.50115690808926816</v>
       </c>
       <c r="F30">
         <v>4</v>
